--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3246.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3246.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.661954008143529</v>
+        <v>0.8180572986602783</v>
       </c>
       <c r="B1">
-        <v>2.211301285790567</v>
+        <v>0.6014063358306885</v>
       </c>
       <c r="C1">
-        <v>2.308669951193807</v>
+        <v>0.4652432799339294</v>
       </c>
       <c r="D1">
-        <v>2.845800388518656</v>
+        <v>0.450622171163559</v>
       </c>
       <c r="E1">
-        <v>3.266457096368216</v>
+        <v>0.4864756464958191</v>
       </c>
     </row>
   </sheetData>
